--- a/excel/mlp3acc.xlsx
+++ b/excel/mlp3acc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wfs1\users$\sidharth\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\public\food-image-classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,10 +14,7 @@
   <sheets>
     <sheet name="mlp3acc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3221,11 +3218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="904341504"/>
-        <c:axId val="904342064"/>
+        <c:axId val="187002320"/>
+        <c:axId val="187002880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="904341504"/>
+        <c:axId val="187002320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3246,6 +3243,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3339,13 +3350,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904342064"/>
+        <c:crossAx val="187002880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="904342064"/>
+        <c:axId val="187002880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3367,6 +3378,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3465,10 +3490,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="904341504"/>
+        <c:crossAx val="187002320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
+        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4140,1734 +4166,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="mlpacc"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>20k samples</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>15k samples</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>10k samples</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>5k samples</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>26.350003480900003</v>
-          </cell>
-          <cell r="G2">
-            <v>29.524999856900003</v>
-          </cell>
-          <cell r="H2">
-            <v>25.249999761600002</v>
-          </cell>
-          <cell r="I2">
-            <v>29.724997281999997</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-          <cell r="F3">
-            <v>24.425001442399999</v>
-          </cell>
-          <cell r="G3">
-            <v>25.8749991655</v>
-          </cell>
-          <cell r="H3">
-            <v>23.7250030041</v>
-          </cell>
-          <cell r="I3">
-            <v>25.749996304500002</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>3</v>
-          </cell>
-          <cell r="F4">
-            <v>23.349998891400002</v>
-          </cell>
-          <cell r="G4">
-            <v>23.849999904600001</v>
-          </cell>
-          <cell r="H4">
-            <v>22.6750016212</v>
-          </cell>
-          <cell r="I4">
-            <v>24.2250010371</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>4</v>
-          </cell>
-          <cell r="F5">
-            <v>22.650003433199998</v>
-          </cell>
-          <cell r="G5">
-            <v>22.825001180200001</v>
-          </cell>
-          <cell r="H5">
-            <v>21.774998307200001</v>
-          </cell>
-          <cell r="I5">
-            <v>23.449996113800001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>5</v>
-          </cell>
-          <cell r="F6">
-            <v>22.450001537799999</v>
-          </cell>
-          <cell r="G6">
-            <v>22.275000810600002</v>
-          </cell>
-          <cell r="H6">
-            <v>21.424999833099999</v>
-          </cell>
-          <cell r="I6">
-            <v>22.8249996901</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>22.0500007272</v>
-          </cell>
-          <cell r="G7">
-            <v>21.924999356300003</v>
-          </cell>
-          <cell r="H7">
-            <v>21.024999022499998</v>
-          </cell>
-          <cell r="I7">
-            <v>22.3750010133</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>7</v>
-          </cell>
-          <cell r="F8">
-            <v>21.700002253099999</v>
-          </cell>
-          <cell r="G8">
-            <v>21.725001931200001</v>
-          </cell>
-          <cell r="H8">
-            <v>20.824997127100001</v>
-          </cell>
-          <cell r="I8">
-            <v>22.124999761600002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>8</v>
-          </cell>
-          <cell r="F9">
-            <v>21.3250011206</v>
-          </cell>
-          <cell r="G9">
-            <v>21.6999992728</v>
-          </cell>
-          <cell r="H9">
-            <v>20.799997448900001</v>
-          </cell>
-          <cell r="I9">
-            <v>21.799999475500002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>9</v>
-          </cell>
-          <cell r="F10">
-            <v>21.125002205400001</v>
-          </cell>
-          <cell r="G10">
-            <v>21.524998545599999</v>
-          </cell>
-          <cell r="H10">
-            <v>20.424997806500002</v>
-          </cell>
-          <cell r="I10">
-            <v>21.400000155000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>10</v>
-          </cell>
-          <cell r="F11">
-            <v>20.925001800099999</v>
-          </cell>
-          <cell r="G11">
-            <v>21.4250013232</v>
-          </cell>
-          <cell r="H11">
-            <v>20.249998569500001</v>
-          </cell>
-          <cell r="I11">
-            <v>21.174998581400001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>11</v>
-          </cell>
-          <cell r="F12">
-            <v>20.6000000238</v>
-          </cell>
-          <cell r="G12">
-            <v>21.150000393399999</v>
-          </cell>
-          <cell r="H12">
-            <v>20.1249986887</v>
-          </cell>
-          <cell r="I12">
-            <v>20.999999344300001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>12</v>
-          </cell>
-          <cell r="F13">
-            <v>20.124997198599999</v>
-          </cell>
-          <cell r="G13">
-            <v>20.850001275499999</v>
-          </cell>
-          <cell r="H13">
-            <v>20.0749978423</v>
-          </cell>
-          <cell r="I13">
-            <v>20.674999058200001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>13</v>
-          </cell>
-          <cell r="F14">
-            <v>20.099996030299998</v>
-          </cell>
-          <cell r="G14">
-            <v>20.849999785400001</v>
-          </cell>
-          <cell r="H14">
-            <v>20.149996876699998</v>
-          </cell>
-          <cell r="I14">
-            <v>20.5500021577</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>14</v>
-          </cell>
-          <cell r="F15">
-            <v>19.874997437000001</v>
-          </cell>
-          <cell r="G15">
-            <v>20.775002241099997</v>
-          </cell>
-          <cell r="H15">
-            <v>20.199996233</v>
-          </cell>
-          <cell r="I15">
-            <v>20.350001752399997</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>15</v>
-          </cell>
-          <cell r="F16">
-            <v>19.799996912499999</v>
-          </cell>
-          <cell r="G16">
-            <v>20.750002562999999</v>
-          </cell>
-          <cell r="H16">
-            <v>20.099997520400002</v>
-          </cell>
-          <cell r="I16">
-            <v>20.3250005841</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>16</v>
-          </cell>
-          <cell r="F17">
-            <v>19.799995422399999</v>
-          </cell>
-          <cell r="G17">
-            <v>20.675003528600001</v>
-          </cell>
-          <cell r="H17">
-            <v>19.9749991298</v>
-          </cell>
-          <cell r="I17">
-            <v>20.199999213200002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>17</v>
-          </cell>
-          <cell r="F18">
-            <v>19.6999952197</v>
-          </cell>
-          <cell r="G18">
-            <v>20.675002038500001</v>
-          </cell>
-          <cell r="H18">
-            <v>19.6999996901</v>
-          </cell>
-          <cell r="I18">
-            <v>20.199997723100001</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>18</v>
-          </cell>
-          <cell r="F19">
-            <v>19.674997031700002</v>
-          </cell>
-          <cell r="G19">
-            <v>20.6500008702</v>
-          </cell>
-          <cell r="H19">
-            <v>19.500000774900002</v>
-          </cell>
-          <cell r="I19">
-            <v>20.1249986887</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>19</v>
-          </cell>
-          <cell r="F20">
-            <v>19.6499973536</v>
-          </cell>
-          <cell r="G20">
-            <v>20.600001513999999</v>
-          </cell>
-          <cell r="H20">
-            <v>19.499999284699999</v>
-          </cell>
-          <cell r="I20">
-            <v>20.0749978423</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>20</v>
-          </cell>
-          <cell r="F21">
-            <v>19.599997997300001</v>
-          </cell>
-          <cell r="G21">
-            <v>20.650003850500003</v>
-          </cell>
-          <cell r="H21">
-            <v>19.449999928499999</v>
-          </cell>
-          <cell r="I21">
-            <v>20.049998164200002</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>21</v>
-          </cell>
-          <cell r="F22">
-            <v>19.6499973536</v>
-          </cell>
-          <cell r="G22">
-            <v>20.575000345700001</v>
-          </cell>
-          <cell r="H22">
-            <v>19.374999404</v>
-          </cell>
-          <cell r="I22">
-            <v>20.0249969959</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>22</v>
-          </cell>
-          <cell r="F23">
-            <v>19.650000333800001</v>
-          </cell>
-          <cell r="G23">
-            <v>20.4500004649</v>
-          </cell>
-          <cell r="H23">
-            <v>19.374999404</v>
-          </cell>
-          <cell r="I23">
-            <v>19.999997317800002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>23</v>
-          </cell>
-          <cell r="F24">
-            <v>19.550000131100003</v>
-          </cell>
-          <cell r="G24">
-            <v>20.4499989748</v>
-          </cell>
-          <cell r="H24">
-            <v>19.250002503399998</v>
-          </cell>
-          <cell r="I24">
-            <v>19.999997317800002</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>24</v>
-          </cell>
-          <cell r="F25">
-            <v>19.574999809299999</v>
-          </cell>
-          <cell r="G25">
-            <v>20.2999994159</v>
-          </cell>
-          <cell r="H25">
-            <v>19.225002825299999</v>
-          </cell>
-          <cell r="I25">
-            <v>19.925001263600002</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>25</v>
-          </cell>
-          <cell r="F26">
-            <v>19.549998640999998</v>
-          </cell>
-          <cell r="G26">
-            <v>20.224998891400002</v>
-          </cell>
-          <cell r="H26">
-            <v>19.250002503399998</v>
-          </cell>
-          <cell r="I26">
-            <v>19.849999249</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>26</v>
-          </cell>
-          <cell r="F27">
-            <v>19.474999606600001</v>
-          </cell>
-          <cell r="G27">
-            <v>20.199999213200002</v>
-          </cell>
-          <cell r="H27">
-            <v>19.325001537799999</v>
-          </cell>
-          <cell r="I27">
-            <v>19.724999368199999</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>27</v>
-          </cell>
-          <cell r="F28">
-            <v>19.374999404</v>
-          </cell>
-          <cell r="G28">
-            <v>20.1749995351</v>
-          </cell>
-          <cell r="H28">
-            <v>19.325003027899999</v>
-          </cell>
-          <cell r="I28">
-            <v>19.6499973536</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>28</v>
-          </cell>
-          <cell r="F29">
-            <v>19.399999082099999</v>
-          </cell>
-          <cell r="G29">
-            <v>20.149998366800002</v>
-          </cell>
-          <cell r="H29">
-            <v>19.300003349800001</v>
-          </cell>
-          <cell r="I29">
-            <v>19.574995338899999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>29</v>
-          </cell>
-          <cell r="F30">
-            <v>19.3499997258</v>
-          </cell>
-          <cell r="G30">
-            <v>20.049999654299999</v>
-          </cell>
-          <cell r="H30">
-            <v>19.2750021815</v>
-          </cell>
-          <cell r="I30">
-            <v>19.6499943733</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>30</v>
-          </cell>
-          <cell r="F31">
-            <v>19.200000166900001</v>
-          </cell>
-          <cell r="G31">
-            <v>20.024998486000001</v>
-          </cell>
-          <cell r="H31">
-            <v>19.2250013351</v>
-          </cell>
-          <cell r="I31">
-            <v>19.749994575999999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>31</v>
-          </cell>
-          <cell r="F32">
-            <v>19.175000488800002</v>
-          </cell>
-          <cell r="G32">
-            <v>20.099997520400002</v>
-          </cell>
-          <cell r="H32">
-            <v>19.099999964200002</v>
-          </cell>
-          <cell r="I32">
-            <v>19.799995422399999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>32</v>
-          </cell>
-          <cell r="F33">
-            <v>19.075001776200001</v>
-          </cell>
-          <cell r="G33">
-            <v>19.999998807899999</v>
-          </cell>
-          <cell r="H33">
-            <v>18.950003385500001</v>
-          </cell>
-          <cell r="I33">
-            <v>19.824995100500001</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>33</v>
-          </cell>
-          <cell r="F34">
-            <v>19.025002419900002</v>
-          </cell>
-          <cell r="G34">
-            <v>19.999998807899999</v>
-          </cell>
-          <cell r="H34">
-            <v>18.999999761600002</v>
-          </cell>
-          <cell r="I34">
-            <v>19.774997234300002</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>34</v>
-          </cell>
-          <cell r="F35">
-            <v>19.000002741799999</v>
-          </cell>
-          <cell r="G35">
-            <v>20.000000298</v>
-          </cell>
-          <cell r="H35">
-            <v>18.999998271499997</v>
-          </cell>
-          <cell r="I35">
-            <v>19.824998080699999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>35</v>
-          </cell>
-          <cell r="F36">
-            <v>18.925003707400002</v>
-          </cell>
-          <cell r="G36">
-            <v>19.9749991298</v>
-          </cell>
-          <cell r="H36">
-            <v>18.999998271499997</v>
-          </cell>
-          <cell r="I36">
-            <v>19.7499960661</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>36</v>
-          </cell>
-          <cell r="F37">
-            <v>18.875002861000002</v>
-          </cell>
-          <cell r="G37">
-            <v>19.924998283400001</v>
-          </cell>
-          <cell r="H37">
-            <v>18.9249992371</v>
-          </cell>
-          <cell r="I37">
-            <v>19.674997031700002</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>37</v>
-          </cell>
-          <cell r="F38">
-            <v>18.900002539199999</v>
-          </cell>
-          <cell r="G38">
-            <v>19.9499994516</v>
-          </cell>
-          <cell r="H38">
-            <v>18.899999558899999</v>
-          </cell>
-          <cell r="I38">
-            <v>19.6249976754</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>38</v>
-          </cell>
-          <cell r="F39">
-            <v>18.875002861000002</v>
-          </cell>
-          <cell r="G39">
-            <v>19.949997961499999</v>
-          </cell>
-          <cell r="H39">
-            <v>18.9249992371</v>
-          </cell>
-          <cell r="I39">
-            <v>19.6249976754</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>39</v>
-          </cell>
-          <cell r="F40">
-            <v>18.825003504800002</v>
-          </cell>
-          <cell r="G40">
-            <v>19.924998283400001</v>
-          </cell>
-          <cell r="H40">
-            <v>18.9750015736</v>
-          </cell>
-          <cell r="I40">
-            <v>19.599997997300001</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>40</v>
-          </cell>
-          <cell r="F41">
-            <v>18.825003504800002</v>
-          </cell>
-          <cell r="G41">
-            <v>19.874997437000001</v>
-          </cell>
-          <cell r="H41">
-            <v>19.025000929800001</v>
-          </cell>
-          <cell r="I41">
-            <v>19.6249976754</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>41</v>
-          </cell>
-          <cell r="F42">
-            <v>18.8000023365</v>
-          </cell>
-          <cell r="G42">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H42">
-            <v>19.025000929800001</v>
-          </cell>
-          <cell r="I42">
-            <v>19.6249976754</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>42</v>
-          </cell>
-          <cell r="F43">
-            <v>18.700003624000001</v>
-          </cell>
-          <cell r="G43">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H43">
-            <v>19.000001251699999</v>
-          </cell>
-          <cell r="I43">
-            <v>19.599997997300001</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>43</v>
-          </cell>
-          <cell r="F44">
-            <v>18.725003302099999</v>
-          </cell>
-          <cell r="G44">
-            <v>19.824998080699999</v>
-          </cell>
-          <cell r="H44">
-            <v>18.9500018954</v>
-          </cell>
-          <cell r="I44">
-            <v>19.524997472799999</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>44</v>
-          </cell>
-          <cell r="F45">
-            <v>18.650002777600001</v>
-          </cell>
-          <cell r="G45">
-            <v>19.824998080699999</v>
-          </cell>
-          <cell r="H45">
-            <v>18.899999558899999</v>
-          </cell>
-          <cell r="I45">
-            <v>19.4749981165</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>45</v>
-          </cell>
-          <cell r="F46">
-            <v>18.5750037432</v>
-          </cell>
-          <cell r="G46">
-            <v>19.749999046300001</v>
-          </cell>
-          <cell r="H46">
-            <v>18.850001692799999</v>
-          </cell>
-          <cell r="I46">
-            <v>19.499997794599999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>46</v>
-          </cell>
-          <cell r="F47">
-            <v>18.500004708799999</v>
-          </cell>
-          <cell r="G47">
-            <v>19.849997758900003</v>
-          </cell>
-          <cell r="H47">
-            <v>18.875001370899998</v>
-          </cell>
-          <cell r="I47">
-            <v>19.5249989629</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>47</v>
-          </cell>
-          <cell r="F48">
-            <v>18.4500053525</v>
-          </cell>
-          <cell r="G48">
-            <v>19.849997758900003</v>
-          </cell>
-          <cell r="H48">
-            <v>18.825000524499998</v>
-          </cell>
-          <cell r="I48">
-            <v>19.474999606600001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>48</v>
-          </cell>
-          <cell r="F49">
-            <v>18.425002694100002</v>
-          </cell>
-          <cell r="G49">
-            <v>19.874997437000001</v>
-          </cell>
-          <cell r="H49">
-            <v>18.850001692799999</v>
-          </cell>
-          <cell r="I49">
-            <v>19.449998438400002</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>49</v>
-          </cell>
-          <cell r="F50">
-            <v>18.375003337900001</v>
-          </cell>
-          <cell r="G50">
-            <v>19.874997437000001</v>
-          </cell>
-          <cell r="H50">
-            <v>18.825002014600003</v>
-          </cell>
-          <cell r="I50">
-            <v>19.399999082099999</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>50</v>
-          </cell>
-          <cell r="F51">
-            <v>18.375003337900001</v>
-          </cell>
-          <cell r="G51">
-            <v>19.874997437000001</v>
-          </cell>
-          <cell r="H51">
-            <v>18.875001370899998</v>
-          </cell>
-          <cell r="I51">
-            <v>19.3499997258</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>51</v>
-          </cell>
-          <cell r="F52">
-            <v>18.350000679499999</v>
-          </cell>
-          <cell r="G52">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H52">
-            <v>18.799999356300003</v>
-          </cell>
-          <cell r="I52">
-            <v>19.3499997258</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>52</v>
-          </cell>
-          <cell r="F53">
-            <v>18.325002491500001</v>
-          </cell>
-          <cell r="G53">
-            <v>19.874998927099998</v>
-          </cell>
-          <cell r="H53">
-            <v>18.824999034400001</v>
-          </cell>
-          <cell r="I53">
-            <v>19.325000047700001</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>53</v>
-          </cell>
-          <cell r="F54">
-            <v>18.3000043035</v>
-          </cell>
-          <cell r="G54">
-            <v>19.8999971151</v>
-          </cell>
-          <cell r="H54">
-            <v>18.850000202700002</v>
-          </cell>
-          <cell r="I54">
-            <v>19.324998557600001</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>54</v>
-          </cell>
-          <cell r="F55">
-            <v>18.2500034571</v>
-          </cell>
-          <cell r="G55">
-            <v>19.8999971151</v>
-          </cell>
-          <cell r="H55">
-            <v>18.8000008464</v>
-          </cell>
-          <cell r="I55">
-            <v>19.2499995232</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>55</v>
-          </cell>
-          <cell r="F56">
-            <v>18.2500034571</v>
-          </cell>
-          <cell r="G56">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H56">
-            <v>18.725000321900001</v>
-          </cell>
-          <cell r="I56">
-            <v>19.2999988794</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>56</v>
-          </cell>
-          <cell r="F57">
-            <v>18.150001764300001</v>
-          </cell>
-          <cell r="G57">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H57">
-            <v>18.725000321900001</v>
-          </cell>
-          <cell r="I57">
-            <v>19.300000369500001</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="E58">
-            <v>57</v>
-          </cell>
-          <cell r="F58">
-            <v>18.200005590900002</v>
-          </cell>
-          <cell r="G58">
-            <v>19.774997234300002</v>
-          </cell>
-          <cell r="H58">
-            <v>18.6999991536</v>
-          </cell>
-          <cell r="I58">
-            <v>19.274999201299998</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="E59">
-            <v>58</v>
-          </cell>
-          <cell r="F59">
-            <v>18.175004422699999</v>
-          </cell>
-          <cell r="G59">
-            <v>19.774997234300002</v>
-          </cell>
-          <cell r="H59">
-            <v>18.649998307200001</v>
-          </cell>
-          <cell r="I59">
-            <v>19.324998557600001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="E60">
-            <v>59</v>
-          </cell>
-          <cell r="F60">
-            <v>18.200004100799998</v>
-          </cell>
-          <cell r="G60">
-            <v>19.849999249</v>
-          </cell>
-          <cell r="H60">
-            <v>18.749998509900003</v>
-          </cell>
-          <cell r="I60">
-            <v>19.2999988794</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="E61">
-            <v>60</v>
-          </cell>
-          <cell r="F61">
-            <v>18.300002813300001</v>
-          </cell>
-          <cell r="G61">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H61">
-            <v>18.749998509900003</v>
-          </cell>
-          <cell r="I61">
-            <v>19.300000369500001</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="E62">
-            <v>61</v>
-          </cell>
-          <cell r="F62">
-            <v>18.275003135199999</v>
-          </cell>
-          <cell r="G62">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H62">
-            <v>18.749998509900003</v>
-          </cell>
-          <cell r="I62">
-            <v>19.300000369500001</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="E63">
-            <v>62</v>
-          </cell>
-          <cell r="F63">
-            <v>18.2500034571</v>
-          </cell>
-          <cell r="G63">
-            <v>19.774998724500001</v>
-          </cell>
-          <cell r="H63">
-            <v>18.6999991536</v>
-          </cell>
-          <cell r="I63">
-            <v>19.300000369500001</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="E64">
-            <v>63</v>
-          </cell>
-          <cell r="F64">
-            <v>18.2500034571</v>
-          </cell>
-          <cell r="G64">
-            <v>19.724999368199999</v>
-          </cell>
-          <cell r="H64">
-            <v>18.749998509900003</v>
-          </cell>
-          <cell r="I64">
-            <v>19.275000691399999</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="E65">
-            <v>64</v>
-          </cell>
-          <cell r="F65">
-            <v>18.2250037789</v>
-          </cell>
-          <cell r="G65">
-            <v>19.750000536400002</v>
-          </cell>
-          <cell r="H65">
-            <v>18.674996495199998</v>
-          </cell>
-          <cell r="I65">
-            <v>19.200000166900001</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="E66">
-            <v>65</v>
-          </cell>
-          <cell r="F66">
-            <v>18.2250037789</v>
-          </cell>
-          <cell r="G66">
-            <v>19.724999368199999</v>
-          </cell>
-          <cell r="H66">
-            <v>18.6499968171</v>
-          </cell>
-          <cell r="I66">
-            <v>19.2250013351</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="E67">
-            <v>66</v>
-          </cell>
-          <cell r="F67">
-            <v>18.250001967000003</v>
-          </cell>
-          <cell r="G67">
-            <v>19.7999984026</v>
-          </cell>
-          <cell r="H67">
-            <v>18.6999976635</v>
-          </cell>
-          <cell r="I67">
-            <v>19.175000488800002</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="E68">
-            <v>67</v>
-          </cell>
-          <cell r="F68">
-            <v>18.2000026107</v>
-          </cell>
-          <cell r="G68">
-            <v>19.774998724500001</v>
-          </cell>
-          <cell r="H68">
-            <v>18.724997341599998</v>
-          </cell>
-          <cell r="I68">
-            <v>19.150000810600002</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="E69">
-            <v>68</v>
-          </cell>
-          <cell r="F69">
-            <v>18.225002288799999</v>
-          </cell>
-          <cell r="G69">
-            <v>19.724997878100002</v>
-          </cell>
-          <cell r="H69">
-            <v>18.724997341599998</v>
-          </cell>
-          <cell r="I69">
-            <v>19.2500010133</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="E70">
-            <v>69</v>
-          </cell>
-          <cell r="F70">
-            <v>18.2000026107</v>
-          </cell>
-          <cell r="G70">
-            <v>19.674995541599998</v>
-          </cell>
-          <cell r="H70">
-            <v>18.799996375999999</v>
-          </cell>
-          <cell r="I70">
-            <v>19.2750021815</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="E71">
-            <v>70</v>
-          </cell>
-          <cell r="F71">
-            <v>18.2000026107</v>
-          </cell>
-          <cell r="G71">
-            <v>19.7499975562</v>
-          </cell>
-          <cell r="H71">
-            <v>18.8499987125</v>
-          </cell>
-          <cell r="I71">
-            <v>19.350001215900001</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="E72">
-            <v>71</v>
-          </cell>
-          <cell r="F72">
-            <v>18.175001442399999</v>
-          </cell>
-          <cell r="G72">
-            <v>19.7499975562</v>
-          </cell>
-          <cell r="H72">
-            <v>18.749998509900003</v>
-          </cell>
-          <cell r="I72">
-            <v>19.325001537799999</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="E73">
-            <v>72</v>
-          </cell>
-          <cell r="F73">
-            <v>18.150001764300001</v>
-          </cell>
-          <cell r="G73">
-            <v>19.699996709800001</v>
-          </cell>
-          <cell r="H73">
-            <v>18.774998188000001</v>
-          </cell>
-          <cell r="I73">
-            <v>19.350001215900001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="E74">
-            <v>73</v>
-          </cell>
-          <cell r="F74">
-            <v>18.050000071500001</v>
-          </cell>
-          <cell r="G74">
-            <v>19.724997878100002</v>
-          </cell>
-          <cell r="H74">
-            <v>18.8499987125</v>
-          </cell>
-          <cell r="I74">
-            <v>19.275000691399999</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="E75">
-            <v>74</v>
-          </cell>
-          <cell r="F75">
-            <v>18.074999749699998</v>
-          </cell>
-          <cell r="G75">
-            <v>19.7499975562</v>
-          </cell>
-          <cell r="H75">
-            <v>18.799999356300003</v>
-          </cell>
-          <cell r="I75">
-            <v>19.325001537799999</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="E76">
-            <v>75</v>
-          </cell>
-          <cell r="F76">
-            <v>18.050000071500001</v>
-          </cell>
-          <cell r="G76">
-            <v>19.699998199900001</v>
-          </cell>
-          <cell r="H76">
-            <v>18.824999034400001</v>
-          </cell>
-          <cell r="I76">
-            <v>19.3000018597</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="E77">
-            <v>76</v>
-          </cell>
-          <cell r="F77">
-            <v>17.999999225099998</v>
-          </cell>
-          <cell r="G77">
-            <v>19.674998521799999</v>
-          </cell>
-          <cell r="H77">
-            <v>18.725000321900001</v>
-          </cell>
-          <cell r="I77">
-            <v>19.325001537799999</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="E78">
-            <v>77</v>
-          </cell>
-          <cell r="F78">
-            <v>17.974999546999999</v>
-          </cell>
-          <cell r="G78">
-            <v>19.674998521799999</v>
-          </cell>
-          <cell r="H78">
-            <v>18.700000643699997</v>
-          </cell>
-          <cell r="I78">
-            <v>19.300000369500001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="E79">
-            <v>78</v>
-          </cell>
-          <cell r="F79">
-            <v>17.949999868899997</v>
-          </cell>
-          <cell r="G79">
-            <v>19.674998521799999</v>
-          </cell>
-          <cell r="H79">
-            <v>18.675000965599999</v>
-          </cell>
-          <cell r="I79">
-            <v>19.325000047700001</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="E80">
-            <v>79</v>
-          </cell>
-          <cell r="F80">
-            <v>17.899999022499998</v>
-          </cell>
-          <cell r="G80">
-            <v>19.674998521799999</v>
-          </cell>
-          <cell r="H80">
-            <v>18.700000643699997</v>
-          </cell>
-          <cell r="I80">
-            <v>19.325000047700001</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="E81">
-            <v>80</v>
-          </cell>
-          <cell r="F81">
-            <v>17.899999022499998</v>
-          </cell>
-          <cell r="G81">
-            <v>19.674998521799999</v>
-          </cell>
-          <cell r="H81">
-            <v>18.700000643699997</v>
-          </cell>
-          <cell r="I81">
-            <v>19.375000894100001</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="E82">
-            <v>81</v>
-          </cell>
-          <cell r="F82">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G82">
-            <v>19.674998521799999</v>
-          </cell>
-          <cell r="H82">
-            <v>18.675000965599999</v>
-          </cell>
-          <cell r="I82">
-            <v>19.375000894100001</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="E83">
-            <v>82</v>
-          </cell>
-          <cell r="F83">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G83">
-            <v>19.749999046300001</v>
-          </cell>
-          <cell r="H83">
-            <v>18.675000965599999</v>
-          </cell>
-          <cell r="I83">
-            <v>19.4000005722</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="E84">
-            <v>83</v>
-          </cell>
-          <cell r="F84">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G84">
-            <v>19.749999046300001</v>
-          </cell>
-          <cell r="H84">
-            <v>18.6500012875</v>
-          </cell>
-          <cell r="I84">
-            <v>19.4000005722</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="E85">
-            <v>84</v>
-          </cell>
-          <cell r="F85">
-            <v>17.974999546999999</v>
-          </cell>
-          <cell r="G85">
-            <v>19.749999046300001</v>
-          </cell>
-          <cell r="H85">
-            <v>18.675000965599999</v>
-          </cell>
-          <cell r="I85">
-            <v>19.4000005722</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="E86">
-            <v>85</v>
-          </cell>
-          <cell r="F86">
-            <v>17.999999225099998</v>
-          </cell>
-          <cell r="G86">
-            <v>19.7499975562</v>
-          </cell>
-          <cell r="H86">
-            <v>18.725001811999999</v>
-          </cell>
-          <cell r="I86">
-            <v>19.449999928499999</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="E87">
-            <v>86</v>
-          </cell>
-          <cell r="F87">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G87">
-            <v>19.724996387999997</v>
-          </cell>
-          <cell r="H87">
-            <v>18.775001168300001</v>
-          </cell>
-          <cell r="I87">
-            <v>19.474999606600001</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="E88">
-            <v>87</v>
-          </cell>
-          <cell r="F88">
-            <v>17.949999868899997</v>
-          </cell>
-          <cell r="G88">
-            <v>19.674997031700002</v>
-          </cell>
-          <cell r="H88">
-            <v>18.825000524499998</v>
-          </cell>
-          <cell r="I88">
-            <v>19.499999284699999</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="E89">
-            <v>88</v>
-          </cell>
-          <cell r="F89">
-            <v>17.949999868899997</v>
-          </cell>
-          <cell r="G89">
-            <v>19.549997150900001</v>
-          </cell>
-          <cell r="H89">
-            <v>18.824999034400001</v>
-          </cell>
-          <cell r="I89">
-            <v>19.5249989629</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="E90">
-            <v>89</v>
-          </cell>
-          <cell r="F90">
-            <v>17.874999344300001</v>
-          </cell>
-          <cell r="G90">
-            <v>19.499997794599999</v>
-          </cell>
-          <cell r="H90">
-            <v>18.8499987125</v>
-          </cell>
-          <cell r="I90">
-            <v>19.549998640999998</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="E91">
-            <v>90</v>
-          </cell>
-          <cell r="F91">
-            <v>17.874999344300001</v>
-          </cell>
-          <cell r="G91">
-            <v>19.399997592000002</v>
-          </cell>
-          <cell r="H91">
-            <v>18.8749983907</v>
-          </cell>
-          <cell r="I91">
-            <v>19.549998640999998</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="E92">
-            <v>91</v>
-          </cell>
-          <cell r="F92">
-            <v>17.899999022499998</v>
-          </cell>
-          <cell r="G92">
-            <v>19.399997592000002</v>
-          </cell>
-          <cell r="H92">
-            <v>18.899999558899999</v>
-          </cell>
-          <cell r="I92">
-            <v>19.574998319100001</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="E93">
-            <v>92</v>
-          </cell>
-          <cell r="F93">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G93">
-            <v>19.399999082099999</v>
-          </cell>
-          <cell r="H93">
-            <v>18.899999558899999</v>
-          </cell>
-          <cell r="I93">
-            <v>19.599999487399998</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="E94">
-            <v>93</v>
-          </cell>
-          <cell r="F94">
-            <v>17.9499983788</v>
-          </cell>
-          <cell r="G94">
-            <v>19.424998760199998</v>
-          </cell>
-          <cell r="H94">
-            <v>18.9250007272</v>
-          </cell>
-          <cell r="I94">
-            <v>19.599999487399998</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="E95">
-            <v>94</v>
-          </cell>
-          <cell r="F95">
-            <v>17.925000190700001</v>
-          </cell>
-          <cell r="G95">
-            <v>19.399997592000002</v>
-          </cell>
-          <cell r="H95">
-            <v>18.900001049</v>
-          </cell>
-          <cell r="I95">
-            <v>19.525000453000001</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="E96">
-            <v>95</v>
-          </cell>
-          <cell r="F96">
-            <v>17.900000512600002</v>
-          </cell>
-          <cell r="G96">
-            <v>19.399997592000002</v>
-          </cell>
-          <cell r="H96">
-            <v>18.875001370899998</v>
-          </cell>
-          <cell r="I96">
-            <v>19.499999284699999</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="E97">
-            <v>96</v>
-          </cell>
-          <cell r="F97">
-            <v>17.874999344300001</v>
-          </cell>
-          <cell r="G97">
-            <v>19.374997913799998</v>
-          </cell>
-          <cell r="H97">
-            <v>18.850000202700002</v>
-          </cell>
-          <cell r="I97">
-            <v>19.499999284699999</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="E98">
-            <v>97</v>
-          </cell>
-          <cell r="F98">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G98">
-            <v>19.374997913799998</v>
-          </cell>
-          <cell r="H98">
-            <v>18.850001692799999</v>
-          </cell>
-          <cell r="I98">
-            <v>19.499999284699999</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="E99">
-            <v>98</v>
-          </cell>
-          <cell r="F99">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G99">
-            <v>19.349998235699999</v>
-          </cell>
-          <cell r="H99">
-            <v>18.9250007272</v>
-          </cell>
-          <cell r="I99">
-            <v>19.474999606600001</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="E100">
-            <v>99</v>
-          </cell>
-          <cell r="F100">
-            <v>17.9249987006</v>
-          </cell>
-          <cell r="G100">
-            <v>19.324998557600001</v>
-          </cell>
-          <cell r="H100">
-            <v>18.9250007272</v>
-          </cell>
-          <cell r="I100">
-            <v>19.550000131100003</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="E101">
-            <v>100</v>
-          </cell>
-          <cell r="F101">
-            <v>17.849999666199999</v>
-          </cell>
-          <cell r="G101">
-            <v>19.324998557600001</v>
-          </cell>
-          <cell r="H101">
-            <v>18.9750015736</v>
-          </cell>
-          <cell r="I101">
-            <v>19.5750012994</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6134,7 +4432,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
